--- a/テーブル定義書.xlsx
+++ b/テーブル定義書.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/94884d7d56b8c7b8/Desktop/卒業制作/設計書/基本設計/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="723" documentId="13_ncr:1_{F3C22B6D-BDC3-4DB3-9119-A447E9B2E37D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC4EAE03-E9C6-4753-8571-F7A43BC57D3E}"/>
+  <xr:revisionPtr revIDLastSave="961" documentId="13_ncr:1_{F3C22B6D-BDC3-4DB3-9119-A447E9B2E37D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2761D114-E94C-4AB0-B5E4-4C45D356F230}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="855" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙 " sheetId="165" r:id="rId1"/>
     <sheet name="reservations(予約情報)" sheetId="164" r:id="rId2"/>
     <sheet name="holidays(休業日管理)" sheetId="166" r:id="rId3"/>
     <sheet name="news(お知らせ投稿)" sheetId="169" r:id="rId4"/>
+    <sheet name="contacts(お問い合わせ)" sheetId="170" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'表紙 '!$A$1:$AF$43</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="166">
   <si>
     <t>説明／備考</t>
   </si>
@@ -482,57 +483,14 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>予約者の氏名</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>連絡用メールアドレス</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>ハイフンありでも可</t>
-    <rPh sb="8" eb="9">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>予約希望日</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>予約希望時間</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>予約人数</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>アレルギー・記念日など</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>予約の状態</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>フォーム送信時に自動登録</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>管理画面操作時に自動更新</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>未確認／確認済／キャンセル</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>CHECK(people_count &gt; 0)</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>CHECK(status IN ('未確認','確認済','キャンセル'))</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -542,13 +500,6 @@
   </si>
   <si>
     <t>maxlength=20</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>数値入力のみ</t>
-    <rPh sb="0" eb="4">
-      <t>スウチニュウリョク</t>
-    </rPh>
     <phoneticPr fontId="5"/>
   </si>
   <si>
@@ -656,10 +607,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>定休日</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>現在日時</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -669,14 +616,6 @@
   </si>
   <si>
     <t>休業日の種別</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>祝日名・理由など</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>登録時に自動記録</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
@@ -694,10 +633,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>予約不可日として参照</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>管理画面で選択式</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -764,31 +699,275 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>投稿のタイトル</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>投稿内容（HTML可）</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>投稿に添付する画像の保存先</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>表示開始日。TOPページ抜粋にも使用</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>改行・装飾対応可</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>任意入力。画像なしでも可</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>予約投稿にも対応可</t>
+    <t>カナ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>name_kana</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>予約者の氏名のふりがな。全角カタカナでのみ入力可</t>
+    <rPh sb="12" eb="14">
+      <t>ゼンカク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>予約者の氏名。全角文字。漢字・ひらがな混在可</t>
+    <rPh sb="7" eb="9">
+      <t>ゼンカク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コンザイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>予約人数。セレクトボックスで1〜10名から選択。数値入力不可。最大人数は10名まで。</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>営業日カレンダーと連動した日付選択形式。定休日・臨時休業日は選択不可。</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>フォーム送信時に自動登録。変更不可</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>管理画面操作時に自動更新。変更不可</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>メール形式チェックあり。自動返信に使用</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ハイフンありでも可。数字チェックあり</t>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>スウジ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>CHECK(people_count BETWEEN 1 AND 10)</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t xml:space="preserve">時刻選択形式（セレクトボックスまたは時刻ピッカー）選択可能時間帯は店舗設定に準拠。
+</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>アレルギー・記念日・ベビーカーなど。全角・半角文字、記号・改行可。絵文字不可。最大1000文字。アプリ側でバリデーション制御。任意入力</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>最大500文字。祝日名・理由など。絵文字不可。改行可。アプリ側で制御。任意入力</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>予約不可日として参照。
+重複登録不可</t>
+    <rPh sb="12" eb="16">
+      <t>チョウフクトウロク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>HTMLタグ可。改行・装飾対応。最大2000文字まで（アプリ側で制御）</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>検索・一覧表示に使用</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>任意入力。絵文字不可</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>表示開始日。TOPページ抜粋にも使用
+公開日は予約投稿・過去日投稿に対応。過去日を設定することで、イベント報告や履歴整理、CMS表示順制御などに活用可能。</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>投稿に添付する画像ファイルの保存先パス。管理画面からアップロードされた画像はサーバーに保存され、保存先のパスが自動でこの項目に登録される。表示画面ではこのパスをもとに画像を表示する。ファイル形式は.jpg, .png, .webpなどを許可</t>
+    <rPh sb="118" eb="120">
+      <t>キョカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>任意入力。
+画像なしでも投稿可</t>
+    <rPh sb="12" eb="14">
+      <t>トウコウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Rev 1.01</t>
+  </si>
+  <si>
+    <t>お問い合わせ管理</t>
+    <rPh sb="1" eb="2">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>お問い合わせ投稿テーブル</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>contacts</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Monte Tavola公式サイトの「お問い合わせ」フォームから送信された内容を保存・管理するテーブル。
+ユーザーが氏名・メールアドレス・件名・本文を入力して送信すると、DBに保存され、管理者は管理画面から一覧・詳細を確認できる。
+対応状況（未対応／対応済）を記録することで、問い合わせ対応の漏れ防止や履歴管理に活用できる。
+</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>特記事項</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>問い合わせID</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>件名</t>
+    <rPh sb="0" eb="2">
+      <t>ケンメイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>本文</t>
+    <rPh sb="0" eb="2">
+      <t>ホンブン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>対応状況</t>
+    <rPh sb="0" eb="4">
+      <t>タイオウジョウキョウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>subject</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>massege</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>自動採番</t>
+    <rPh sb="0" eb="4">
+      <t>ジドウサイバン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>未対応</t>
+    <rPh sb="0" eb="3">
+      <t>ミタイオウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ユーザーの氏名。一覧表示に使用</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ユーザーの連絡先。形式チェックあり</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>問い合わせの概要。検索・一覧表示に使用</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>問い合わせ内容。改行・装飾対応。最大2000文字まで（アプリ側で制御）</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>管理者による対応状況（未対応／対応済など）</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>email形式／maxlength=255</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>絵文字不可</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>初期値は未対応</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>お問い合わせテーブル追加/予約情報テーブルのカナ項目追加／全テーブルの備考欄の粒度向上</t>
+    <rPh sb="1" eb="2">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>ヨヤクジョウホウ</t>
+    </rPh>
+    <rPh sb="24" eb="28">
+      <t>コウモクツイカ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ゼン</t>
+    </rPh>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -1345,7 +1524,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1507,6 +1686,24 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="12" fillId="3" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="3" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="3" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1522,18 +1719,21 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="12" fillId="3" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="3" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="3" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1582,12 +1782,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1616,12 +1810,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2194,8 +2382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA8C5E07-C728-4F0F-892B-380398005DB8}">
   <dimension ref="A1:FT43"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:Q10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27:AB27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.95" customHeight="1"/>
@@ -2780,20 +2968,20 @@
       <c r="C8" s="45"/>
       <c r="D8" s="45"/>
       <c r="E8" s="46"/>
-      <c r="F8" s="69" t="s">
+      <c r="F8" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="70"/>
-      <c r="N8" s="70"/>
-      <c r="O8" s="70"/>
-      <c r="P8" s="70"/>
-      <c r="Q8" s="71"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="76"/>
+      <c r="O8" s="76"/>
+      <c r="P8" s="76"/>
+      <c r="Q8" s="77"/>
       <c r="R8" s="38"/>
       <c r="S8" s="38"/>
       <c r="T8" s="38"/>
@@ -2812,26 +3000,26 @@
     </row>
     <row r="9" spans="1:176" ht="12.95" customHeight="1">
       <c r="A9" s="41"/>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="78" t="s">
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="79"/>
-      <c r="L9" s="79"/>
-      <c r="M9" s="79"/>
-      <c r="N9" s="79"/>
-      <c r="O9" s="79"/>
-      <c r="P9" s="79"/>
-      <c r="Q9" s="80"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="85"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="85"/>
+      <c r="M9" s="85"/>
+      <c r="N9" s="85"/>
+      <c r="O9" s="85"/>
+      <c r="P9" s="85"/>
+      <c r="Q9" s="86"/>
       <c r="R9" s="38"/>
       <c r="S9" s="38"/>
       <c r="T9" s="38"/>
@@ -2850,22 +3038,22 @@
     </row>
     <row r="10" spans="1:176" ht="12.95" customHeight="1">
       <c r="A10" s="41"/>
-      <c r="B10" s="75"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="82"/>
-      <c r="K10" s="82"/>
-      <c r="L10" s="82"/>
-      <c r="M10" s="82"/>
-      <c r="N10" s="82"/>
-      <c r="O10" s="82"/>
-      <c r="P10" s="82"/>
-      <c r="Q10" s="83"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="88"/>
+      <c r="M10" s="88"/>
+      <c r="N10" s="88"/>
+      <c r="O10" s="88"/>
+      <c r="P10" s="88"/>
+      <c r="Q10" s="89"/>
       <c r="R10" s="38"/>
       <c r="S10" s="38"/>
       <c r="T10" s="38"/>
@@ -3076,26 +3264,26 @@
       <c r="E17" s="38"/>
       <c r="F17" s="38"/>
       <c r="G17" s="38"/>
-      <c r="H17" s="87" t="s">
+      <c r="H17" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="I17" s="87"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="87"/>
-      <c r="L17" s="87"/>
-      <c r="M17" s="87"/>
-      <c r="N17" s="87"/>
-      <c r="O17" s="87"/>
-      <c r="P17" s="87"/>
-      <c r="Q17" s="87"/>
-      <c r="R17" s="87"/>
-      <c r="S17" s="87"/>
-      <c r="T17" s="87"/>
-      <c r="U17" s="87"/>
-      <c r="V17" s="87"/>
-      <c r="W17" s="87"/>
-      <c r="X17" s="87"/>
-      <c r="Y17" s="87"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="90"/>
+      <c r="L17" s="90"/>
+      <c r="M17" s="90"/>
+      <c r="N17" s="90"/>
+      <c r="O17" s="90"/>
+      <c r="P17" s="90"/>
+      <c r="Q17" s="90"/>
+      <c r="R17" s="90"/>
+      <c r="S17" s="90"/>
+      <c r="T17" s="90"/>
+      <c r="U17" s="90"/>
+      <c r="V17" s="90"/>
+      <c r="W17" s="90"/>
+      <c r="X17" s="90"/>
+      <c r="Y17" s="90"/>
       <c r="AA17" s="38"/>
       <c r="AB17" s="38"/>
       <c r="AC17" s="38"/>
@@ -3111,24 +3299,24 @@
       <c r="E18" s="38"/>
       <c r="F18" s="38"/>
       <c r="G18" s="38"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="87"/>
-      <c r="K18" s="87"/>
-      <c r="L18" s="87"/>
-      <c r="M18" s="87"/>
-      <c r="N18" s="87"/>
-      <c r="O18" s="87"/>
-      <c r="P18" s="87"/>
-      <c r="Q18" s="87"/>
-      <c r="R18" s="87"/>
-      <c r="S18" s="87"/>
-      <c r="T18" s="87"/>
-      <c r="U18" s="87"/>
-      <c r="V18" s="87"/>
-      <c r="W18" s="87"/>
-      <c r="X18" s="87"/>
-      <c r="Y18" s="87"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="90"/>
+      <c r="J18" s="90"/>
+      <c r="K18" s="90"/>
+      <c r="L18" s="90"/>
+      <c r="M18" s="90"/>
+      <c r="N18" s="90"/>
+      <c r="O18" s="90"/>
+      <c r="P18" s="90"/>
+      <c r="Q18" s="90"/>
+      <c r="R18" s="90"/>
+      <c r="S18" s="90"/>
+      <c r="T18" s="90"/>
+      <c r="U18" s="90"/>
+      <c r="V18" s="90"/>
+      <c r="W18" s="90"/>
+      <c r="X18" s="90"/>
+      <c r="Y18" s="90"/>
       <c r="AA18" s="38"/>
       <c r="AB18" s="38"/>
       <c r="AC18" s="38"/>
@@ -3144,24 +3332,24 @@
       <c r="E19" s="38"/>
       <c r="F19" s="38"/>
       <c r="G19" s="38"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="87"/>
-      <c r="J19" s="87"/>
-      <c r="K19" s="87"/>
-      <c r="L19" s="87"/>
-      <c r="M19" s="87"/>
-      <c r="N19" s="87"/>
-      <c r="O19" s="87"/>
-      <c r="P19" s="87"/>
-      <c r="Q19" s="87"/>
-      <c r="R19" s="87"/>
-      <c r="S19" s="87"/>
-      <c r="T19" s="87"/>
-      <c r="U19" s="87"/>
-      <c r="V19" s="87"/>
-      <c r="W19" s="87"/>
-      <c r="X19" s="87"/>
-      <c r="Y19" s="87"/>
+      <c r="H19" s="90"/>
+      <c r="I19" s="90"/>
+      <c r="J19" s="90"/>
+      <c r="K19" s="90"/>
+      <c r="L19" s="90"/>
+      <c r="M19" s="90"/>
+      <c r="N19" s="90"/>
+      <c r="O19" s="90"/>
+      <c r="P19" s="90"/>
+      <c r="Q19" s="90"/>
+      <c r="R19" s="90"/>
+      <c r="S19" s="90"/>
+      <c r="T19" s="90"/>
+      <c r="U19" s="90"/>
+      <c r="V19" s="90"/>
+      <c r="W19" s="90"/>
+      <c r="X19" s="90"/>
+      <c r="Y19" s="90"/>
       <c r="Z19" s="38"/>
       <c r="AA19" s="38"/>
       <c r="AB19" s="38"/>
@@ -3389,12 +3577,12 @@
       <c r="C26" s="49"/>
       <c r="D26" s="49"/>
       <c r="E26" s="49"/>
-      <c r="F26" s="84">
+      <c r="F26" s="69">
         <v>45943</v>
       </c>
-      <c r="G26" s="85"/>
-      <c r="H26" s="85"/>
-      <c r="I26" s="86"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="71"/>
       <c r="J26" s="48" t="s">
         <v>30</v>
       </c>
@@ -3427,35 +3615,45 @@
     </row>
     <row r="27" spans="1:32" ht="12.95" customHeight="1">
       <c r="A27" s="41"/>
-      <c r="B27" s="48"/>
+      <c r="B27" s="48" t="s">
+        <v>143</v>
+      </c>
       <c r="C27" s="49"/>
       <c r="D27" s="49"/>
       <c r="E27" s="49"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="49"/>
-      <c r="N27" s="49"/>
-      <c r="O27" s="49"/>
-      <c r="P27" s="51"/>
-      <c r="Q27" s="49"/>
-      <c r="R27" s="49"/>
-      <c r="S27" s="49"/>
-      <c r="T27" s="49"/>
-      <c r="U27" s="49"/>
-      <c r="V27" s="49"/>
-      <c r="W27" s="49"/>
-      <c r="X27" s="49"/>
-      <c r="Y27" s="49"/>
-      <c r="Z27" s="49"/>
-      <c r="AA27" s="49"/>
-      <c r="AB27" s="50"/>
-      <c r="AC27" s="52"/>
-      <c r="AD27" s="50"/>
+      <c r="F27" s="69">
+        <v>45949</v>
+      </c>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="71"/>
+      <c r="J27" s="72" t="s">
+        <v>165</v>
+      </c>
+      <c r="K27" s="73"/>
+      <c r="L27" s="73"/>
+      <c r="M27" s="73"/>
+      <c r="N27" s="73"/>
+      <c r="O27" s="73"/>
+      <c r="P27" s="73"/>
+      <c r="Q27" s="73"/>
+      <c r="R27" s="73"/>
+      <c r="S27" s="73"/>
+      <c r="T27" s="73"/>
+      <c r="U27" s="73"/>
+      <c r="V27" s="73"/>
+      <c r="W27" s="73"/>
+      <c r="X27" s="73"/>
+      <c r="Y27" s="73"/>
+      <c r="Z27" s="73"/>
+      <c r="AA27" s="73"/>
+      <c r="AB27" s="74"/>
+      <c r="AC27" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD27" s="50" t="s">
+        <v>39</v>
+      </c>
       <c r="AE27" s="38"/>
       <c r="AF27" s="43"/>
     </row>
@@ -4004,7 +4202,9 @@
       <c r="AF43" s="56"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
     <mergeCell ref="F8:Q8"/>
     <mergeCell ref="B9:E10"/>
     <mergeCell ref="F9:Q10"/>
@@ -4027,10 +4227,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.5" customHeight="1"/>
@@ -4053,106 +4253,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="2" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="98"/>
+      <c r="B1" s="105"/>
       <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="106" t="s">
+      <c r="D1" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="106" t="s">
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="109"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="106" t="s">
+      <c r="J1" s="114"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="111" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="107"/>
+      <c r="M1" s="112"/>
       <c r="N1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="99">
+      <c r="O1" s="106">
         <v>45943</v>
       </c>
-      <c r="P1" s="100"/>
+      <c r="P1" s="107"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="98"/>
-      <c r="B2" s="98"/>
+      <c r="A2" s="105"/>
+      <c r="B2" s="105"/>
       <c r="C2" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="101" t="s">
-        <v>97</v>
-      </c>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="101" t="s">
-        <v>96</v>
-      </c>
-      <c r="J2" s="102"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="101" t="s">
+      <c r="D2" s="108" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="108" t="s">
+        <v>85</v>
+      </c>
+      <c r="J2" s="109"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="108"/>
+      <c r="M2" s="113"/>
       <c r="N2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="104" t="s">
-        <v>42</v>
-      </c>
-      <c r="P2" s="105"/>
+      <c r="O2" s="106">
+        <v>45949</v>
+      </c>
+      <c r="P2" s="107"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="92" t="s">
-        <v>102</v>
-      </c>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
-      <c r="N3" s="93"/>
-      <c r="O3" s="93"/>
-      <c r="P3" s="94"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="99" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="101"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="90"/>
-      <c r="B4" s="91"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="96"/>
-      <c r="P4" s="97"/>
+      <c r="A4" s="97"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="103"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="103"/>
+      <c r="M4" s="103"/>
+      <c r="N4" s="103"/>
+      <c r="O4" s="103"/>
+      <c r="P4" s="104"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="6"/>
@@ -4281,10 +4481,10 @@
       <c r="K8" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="L8" s="64" t="s">
-        <v>78</v>
-      </c>
-      <c r="M8" s="65"/>
+      <c r="L8" s="91" t="s">
+        <v>125</v>
+      </c>
+      <c r="M8" s="92"/>
       <c r="N8" s="66" t="s">
         <v>42</v>
       </c>
@@ -4296,20 +4496,20 @@
       </c>
     </row>
     <row r="9" spans="1:16" s="26" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A9" s="28">
+      <c r="A9" s="27">
         <v>3</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>38</v>
+        <v>122</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>65</v>
+        <v>123</v>
       </c>
       <c r="D9" s="21" t="s">
         <v>36</v>
       </c>
       <c r="E9" s="23">
-        <v>255</v>
+        <v>100</v>
       </c>
       <c r="F9" s="24">
         <v>0</v>
@@ -4323,10 +4523,10 @@
       <c r="K9" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="L9" s="58" t="s">
-        <v>79</v>
-      </c>
-      <c r="M9" s="59"/>
+      <c r="L9" s="91" t="s">
+        <v>124</v>
+      </c>
+      <c r="M9" s="92"/>
       <c r="N9" s="66" t="s">
         <v>42</v>
       </c>
@@ -4334,24 +4534,24 @@
         <v>32</v>
       </c>
       <c r="P9" s="25" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="26" customFormat="1" ht="31.5" customHeight="1">
       <c r="A10" s="28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10" s="21" t="s">
         <v>36</v>
       </c>
       <c r="E10" s="23">
-        <v>20</v>
+        <v>255</v>
       </c>
       <c r="F10" s="24">
         <v>0</v>
@@ -4365,10 +4565,10 @@
       <c r="K10" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="L10" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="M10" s="59"/>
+      <c r="L10" s="91" t="s">
+        <v>130</v>
+      </c>
+      <c r="M10" s="92"/>
       <c r="N10" s="66" t="s">
         <v>42</v>
       </c>
@@ -4376,27 +4576,27 @@
         <v>32</v>
       </c>
       <c r="P10" s="25" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="26" customFormat="1" ht="31.5" customHeight="1">
       <c r="A11" s="28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="E11" s="23">
+        <v>20</v>
+      </c>
+      <c r="F11" s="24">
+        <v>0</v>
       </c>
       <c r="G11" s="22" t="s">
         <v>16</v>
@@ -4407,32 +4607,32 @@
       <c r="K11" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="L11" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="M11" s="59"/>
+      <c r="L11" s="91" t="s">
+        <v>131</v>
+      </c>
+      <c r="M11" s="92"/>
       <c r="N11" s="66" t="s">
         <v>42</v>
       </c>
       <c r="O11" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="P11" s="67" t="s">
-        <v>42</v>
+      <c r="P11" s="25" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="26" customFormat="1" ht="31.5" customHeight="1">
       <c r="A12" s="28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E12" s="23" t="s">
         <v>34</v>
@@ -4449,10 +4649,10 @@
       <c r="K12" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="L12" s="58" t="s">
-        <v>82</v>
-      </c>
-      <c r="M12" s="59"/>
+      <c r="L12" s="91" t="s">
+        <v>127</v>
+      </c>
+      <c r="M12" s="92"/>
       <c r="N12" s="66" t="s">
         <v>42</v>
       </c>
@@ -4465,16 +4665,16 @@
     </row>
     <row r="13" spans="1:16" s="26" customFormat="1" ht="31.5" customHeight="1">
       <c r="A13" s="28">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="E13" s="23" t="s">
         <v>34</v>
@@ -4491,120 +4691,120 @@
       <c r="K13" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="L13" s="58" t="s">
-        <v>83</v>
-      </c>
-      <c r="M13" s="59"/>
+      <c r="L13" s="93" t="s">
+        <v>133</v>
+      </c>
+      <c r="M13" s="94"/>
       <c r="N13" s="66" t="s">
         <v>42</v>
       </c>
       <c r="O13" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="P13" s="25" t="s">
-        <v>93</v>
+        <v>32</v>
+      </c>
+      <c r="P13" s="67" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="26" customFormat="1" ht="31.5" customHeight="1">
       <c r="A14" s="28">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E14" s="23">
-        <v>1000</v>
-      </c>
-      <c r="F14" s="24">
-        <v>0</v>
-      </c>
-      <c r="G14" s="22"/>
+        <v>35</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>16</v>
+      </c>
       <c r="H14" s="22"/>
       <c r="I14" s="22"/>
       <c r="J14" s="21"/>
       <c r="K14" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="L14" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="M14" s="59"/>
+      <c r="L14" s="91" t="s">
+        <v>126</v>
+      </c>
+      <c r="M14" s="92"/>
       <c r="N14" s="66" t="s">
         <v>42</v>
       </c>
       <c r="O14" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="P14" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="P14" s="25" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" s="26" customFormat="1" ht="31.5" customHeight="1">
+    </row>
+    <row r="15" spans="1:16" s="26" customFormat="1" ht="47.25" customHeight="1">
       <c r="A15" s="28">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="23">
-        <v>20</v>
-      </c>
-      <c r="F15" s="24">
-        <v>0</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>16</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="22"/>
       <c r="H15" s="22"/>
       <c r="I15" s="22"/>
       <c r="J15" s="21"/>
       <c r="K15" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="L15" s="58" t="s">
-        <v>85</v>
-      </c>
-      <c r="M15" s="59"/>
+        <v>45</v>
+      </c>
+      <c r="L15" s="91" t="s">
+        <v>134</v>
+      </c>
+      <c r="M15" s="92"/>
       <c r="N15" s="66" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="O15" s="21" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="P15" s="25" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="26" customFormat="1" ht="31.5" customHeight="1">
       <c r="A16" s="28">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="24" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="E16" s="23">
+        <v>20</v>
+      </c>
+      <c r="F16" s="24">
+        <v>0</v>
       </c>
       <c r="G16" s="22" t="s">
         <v>16</v>
@@ -4613,31 +4813,31 @@
       <c r="I16" s="22"/>
       <c r="J16" s="21"/>
       <c r="K16" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L16" s="58" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="M16" s="59"/>
       <c r="N16" s="66" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="O16" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="P16" s="67" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" s="26" customFormat="1" ht="63" customHeight="1">
+        <v>80</v>
+      </c>
+      <c r="P16" s="25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" s="26" customFormat="1" ht="31.5" customHeight="1">
       <c r="A17" s="28">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D17" s="21" t="s">
         <v>37</v>
@@ -4657,37 +4857,61 @@
       <c r="K17" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="L17" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="M17" s="59"/>
+      <c r="L17" s="91" t="s">
+        <v>128</v>
+      </c>
+      <c r="M17" s="92"/>
       <c r="N17" s="66" t="s">
         <v>42</v>
       </c>
       <c r="O17" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P17" s="67" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="26" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
+    <row r="18" spans="1:16" s="26" customFormat="1" ht="63" customHeight="1">
+      <c r="A18" s="28">
+        <v>11</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="L18" s="91" t="s">
+        <v>129</v>
+      </c>
+      <c r="M18" s="92"/>
+      <c r="N18" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="O18" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="P18" s="67" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="19" spans="1:16" s="26" customFormat="1" ht="31.5" customHeight="1">
       <c r="A19" s="5"/>
@@ -4743,9 +4967,27 @@
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
     </row>
-    <row r="22" spans="1:16" ht="60" customHeight="1"/>
+    <row r="22" spans="1:16" s="26" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+    </row>
+    <row r="23" spans="1:16" ht="60" customHeight="1"/>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="21">
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="C3:P4"/>
     <mergeCell ref="A1:B2"/>
@@ -4757,6 +4999,16 @@
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -4773,7 +5025,7 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.5" customHeight="1"/>
@@ -4796,106 +5048,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="2" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="98"/>
+      <c r="B1" s="105"/>
       <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="106" t="s">
+      <c r="D1" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="106" t="s">
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="109"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="106" t="s">
+      <c r="J1" s="114"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="111" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="107"/>
+      <c r="M1" s="112"/>
       <c r="N1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="99">
-        <v>45945</v>
-      </c>
-      <c r="P1" s="100"/>
+      <c r="O1" s="106">
+        <v>45943</v>
+      </c>
+      <c r="P1" s="107"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="98"/>
-      <c r="B2" s="98"/>
+      <c r="A2" s="105"/>
+      <c r="B2" s="105"/>
       <c r="C2" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="101" t="s">
-        <v>99</v>
-      </c>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="101" t="s">
-        <v>100</v>
-      </c>
-      <c r="J2" s="102"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="101" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="108" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="108" t="s">
+        <v>89</v>
+      </c>
+      <c r="J2" s="109"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="108"/>
+      <c r="M2" s="113"/>
       <c r="N2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="104" t="s">
-        <v>42</v>
-      </c>
-      <c r="P2" s="105"/>
+      <c r="O2" s="106">
+        <v>45949</v>
+      </c>
+      <c r="P2" s="107"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="110" t="s">
-        <v>101</v>
-      </c>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111"/>
-      <c r="N3" s="111"/>
-      <c r="O3" s="111"/>
-      <c r="P3" s="112"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="115" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="116"/>
+      <c r="O3" s="116"/>
+      <c r="P3" s="117"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="90"/>
-      <c r="B4" s="91"/>
-      <c r="C4" s="113"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="114"/>
-      <c r="L4" s="114"/>
-      <c r="M4" s="114"/>
-      <c r="N4" s="114"/>
-      <c r="O4" s="114"/>
-      <c r="P4" s="115"/>
+      <c r="A4" s="97"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="119"/>
+      <c r="K4" s="119"/>
+      <c r="L4" s="119"/>
+      <c r="M4" s="119"/>
+      <c r="N4" s="119"/>
+      <c r="O4" s="119"/>
+      <c r="P4" s="120"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="6"/>
@@ -4955,7 +5207,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>33</v>
@@ -4982,7 +5234,7 @@
         <v>16</v>
       </c>
       <c r="K7" s="21" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="L7" s="62" t="s">
         <v>40</v>
@@ -5003,7 +5255,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>67</v>
@@ -5020,16 +5272,18 @@
       <c r="G8" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="22"/>
+      <c r="H8" s="22" t="s">
+        <v>16</v>
+      </c>
       <c r="I8" s="22"/>
       <c r="J8" s="22" t="s">
         <v>16</v>
       </c>
       <c r="K8" s="21" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="L8" s="64" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="M8" s="65"/>
       <c r="N8" s="66" t="s">
@@ -5039,7 +5293,7 @@
         <v>32</v>
       </c>
       <c r="P8" s="25" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="26" customFormat="1" ht="31.5" customHeight="1">
@@ -5047,10 +5301,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="D9" s="21" t="s">
         <v>36</v>
@@ -5068,20 +5322,20 @@
       <c r="I9" s="22"/>
       <c r="J9" s="21"/>
       <c r="K9" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="L9" s="58" t="s">
-        <v>115</v>
-      </c>
-      <c r="M9" s="59"/>
+        <v>100</v>
+      </c>
+      <c r="L9" s="91" t="s">
+        <v>103</v>
+      </c>
+      <c r="M9" s="92"/>
       <c r="N9" s="66" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="O9" s="21" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="P9" s="25" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="26" customFormat="1" ht="31.5" customHeight="1">
@@ -5089,7 +5343,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>70</v>
@@ -5097,23 +5351,23 @@
       <c r="D10" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="E10" s="23">
-        <v>500</v>
-      </c>
-      <c r="F10" s="24">
-        <v>0</v>
+      <c r="E10" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>34</v>
       </c>
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
       <c r="I10" s="22"/>
       <c r="J10" s="21"/>
       <c r="K10" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="L10" s="58" t="s">
-        <v>116</v>
-      </c>
-      <c r="M10" s="59"/>
+        <v>100</v>
+      </c>
+      <c r="L10" s="91" t="s">
+        <v>135</v>
+      </c>
+      <c r="M10" s="92"/>
       <c r="N10" s="66" t="s">
         <v>42</v>
       </c>
@@ -5121,7 +5375,7 @@
         <v>42</v>
       </c>
       <c r="P10" s="25" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="26" customFormat="1" ht="31.5" customHeight="1">
@@ -5129,7 +5383,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C11" s="21" t="s">
         <v>72</v>
@@ -5150,12 +5404,12 @@
       <c r="I11" s="22"/>
       <c r="J11" s="21"/>
       <c r="K11" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="L11" s="58" t="s">
-        <v>117</v>
-      </c>
-      <c r="M11" s="59"/>
+        <v>101</v>
+      </c>
+      <c r="L11" s="91" t="s">
+        <v>128</v>
+      </c>
+      <c r="M11" s="92"/>
       <c r="N11" s="66" t="s">
         <v>42</v>
       </c>
@@ -5171,7 +5425,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>73</v>
@@ -5192,12 +5446,12 @@
       <c r="I12" s="22"/>
       <c r="J12" s="21"/>
       <c r="K12" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="L12" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="M12" s="59"/>
+        <v>101</v>
+      </c>
+      <c r="L12" s="91" t="s">
+        <v>129</v>
+      </c>
+      <c r="M12" s="92"/>
       <c r="N12" s="66" t="s">
         <v>42</v>
       </c>
@@ -5372,9 +5626,7 @@
     </row>
     <row r="22" spans="1:16" ht="60" customHeight="1"/>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:P4"/>
+  <mergeCells count="15">
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="I1:K1"/>
@@ -5384,6 +5636,12 @@
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="O2:P2"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:P4"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -5400,7 +5658,7 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.5" customHeight="1"/>
@@ -5423,106 +5681,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="2" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="98"/>
+      <c r="B1" s="105"/>
       <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="106" t="s">
+      <c r="D1" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="106" t="s">
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="109"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="106" t="s">
+      <c r="J1" s="114"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="111" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="107"/>
+      <c r="M1" s="112"/>
       <c r="N1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="99">
-        <v>45945</v>
-      </c>
-      <c r="P1" s="100"/>
+      <c r="O1" s="106">
+        <v>45943</v>
+      </c>
+      <c r="P1" s="107"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="98"/>
-      <c r="B2" s="98"/>
+      <c r="A2" s="105"/>
+      <c r="B2" s="105"/>
       <c r="C2" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D2" s="101" t="s">
-        <v>124</v>
-      </c>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="101" t="s">
-        <v>125</v>
-      </c>
-      <c r="J2" s="102"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="101" t="s">
-        <v>126</v>
-      </c>
-      <c r="M2" s="108"/>
+        <v>108</v>
+      </c>
+      <c r="D2" s="108" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="108" t="s">
+        <v>110</v>
+      </c>
+      <c r="J2" s="109"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="108" t="s">
+        <v>111</v>
+      </c>
+      <c r="M2" s="113"/>
       <c r="N2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="104" t="s">
-        <v>42</v>
-      </c>
-      <c r="P2" s="105"/>
+      <c r="O2" s="106">
+        <v>45949</v>
+      </c>
+      <c r="P2" s="107"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="92" t="s">
-        <v>127</v>
-      </c>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
-      <c r="N3" s="93"/>
-      <c r="O3" s="93"/>
-      <c r="P3" s="94"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="99" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="101"/>
     </row>
     <row r="4" spans="1:16" ht="22.5" customHeight="1">
-      <c r="A4" s="90"/>
-      <c r="B4" s="91"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="96"/>
-      <c r="P4" s="97"/>
+      <c r="A4" s="97"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="103"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="103"/>
+      <c r="M4" s="103"/>
+      <c r="N4" s="103"/>
+      <c r="O4" s="103"/>
+      <c r="P4" s="104"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="6"/>
@@ -5582,7 +5840,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>33</v>
@@ -5630,10 +5888,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="D8" s="22" t="s">
         <v>36</v>
@@ -5656,7 +5914,7 @@
         <v>45</v>
       </c>
       <c r="L8" s="64" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M8" s="65"/>
       <c r="N8" s="66" t="s">
@@ -5666,7 +5924,7 @@
         <v>32</v>
       </c>
       <c r="P8" s="25" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="26" customFormat="1" ht="31.5" customHeight="1">
@@ -5674,16 +5932,16 @@
         <v>3</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="D9" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="E9" s="23">
-        <v>2000</v>
+      <c r="E9" s="23" t="s">
+        <v>34</v>
       </c>
       <c r="F9" s="24" t="s">
         <v>34</v>
@@ -5695,10 +5953,10 @@
       <c r="K9" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="L9" s="58" t="s">
-        <v>138</v>
-      </c>
-      <c r="M9" s="59"/>
+      <c r="L9" s="91" t="s">
+        <v>137</v>
+      </c>
+      <c r="M9" s="92"/>
       <c r="N9" s="66" t="s">
         <v>42</v>
       </c>
@@ -5706,18 +5964,18 @@
         <v>42</v>
       </c>
       <c r="P9" s="25" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" s="26" customFormat="1" ht="31.5" customHeight="1">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="26" customFormat="1" ht="75.75" customHeight="1">
       <c r="A10" s="28">
         <v>4</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="D10" s="22" t="s">
         <v>36</v>
@@ -5735,10 +5993,10 @@
       <c r="K10" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="L10" s="58" t="s">
-        <v>139</v>
-      </c>
-      <c r="M10" s="59"/>
+      <c r="L10" s="91" t="s">
+        <v>141</v>
+      </c>
+      <c r="M10" s="92"/>
       <c r="N10" s="66" t="s">
         <v>42</v>
       </c>
@@ -5749,15 +6007,15 @@
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="26" customFormat="1" ht="31.5" customHeight="1">
+    <row r="11" spans="1:16" s="26" customFormat="1" ht="62.25" customHeight="1">
       <c r="A11" s="68">
         <v>5</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="D11" s="22" t="s">
         <v>67</v>
@@ -5779,18 +6037,18 @@
       <c r="K11" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="L11" s="116" t="s">
+      <c r="L11" s="91" t="s">
         <v>140</v>
       </c>
-      <c r="M11" s="117"/>
+      <c r="M11" s="92"/>
       <c r="N11" s="66" t="s">
         <v>42</v>
       </c>
       <c r="O11" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="P11" s="25" t="s">
-        <v>143</v>
+      <c r="P11" s="67" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="26" customFormat="1" ht="31.5" customHeight="1">
@@ -5821,10 +6079,10 @@
       <c r="K12" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="L12" s="58" t="s">
-        <v>86</v>
-      </c>
-      <c r="M12" s="59"/>
+      <c r="L12" s="91" t="s">
+        <v>128</v>
+      </c>
+      <c r="M12" s="92"/>
       <c r="N12" s="66" t="s">
         <v>42</v>
       </c>
@@ -5863,10 +6121,10 @@
       <c r="K13" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="L13" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="M13" s="59"/>
+      <c r="L13" s="91" t="s">
+        <v>129</v>
+      </c>
+      <c r="M13" s="92"/>
       <c r="N13" s="66" t="s">
         <v>42</v>
       </c>
@@ -5951,10 +6209,652 @@
     </row>
     <row r="18" spans="1:16" ht="60" customHeight="1"/>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="16">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L10:M10"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="C3:P4"/>
     <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L9:M9"/>
+  </mergeCells>
+  <phoneticPr fontId="5"/>
+  <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
+  <pageSetup paperSize="5" scale="96" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7523301B-8B39-4D4A-97C0-9B21BB5100F4}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:P19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:P2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.5" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="4.125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="17.375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="21.875" style="29" customWidth="1"/>
+    <col min="4" max="4" width="10.625" style="9" customWidth="1"/>
+    <col min="5" max="6" width="4.625" style="9" customWidth="1"/>
+    <col min="7" max="8" width="4" style="9" customWidth="1"/>
+    <col min="9" max="9" width="4.375" style="9" customWidth="1"/>
+    <col min="10" max="10" width="4" style="9" customWidth="1"/>
+    <col min="11" max="11" width="9" style="9" customWidth="1"/>
+    <col min="12" max="12" width="21.375" style="9" customWidth="1"/>
+    <col min="13" max="13" width="13.625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="12.125" style="5" customWidth="1"/>
+    <col min="15" max="15" width="25" style="5" customWidth="1"/>
+    <col min="16" max="16" width="18.875" style="5" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="2" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A1" s="105" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="105"/>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="111" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="111" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="114"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="111" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" s="112"/>
+      <c r="N1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="106">
+        <v>45949</v>
+      </c>
+      <c r="P1" s="107"/>
+    </row>
+    <row r="2" spans="1:16" ht="20.25" customHeight="1">
+      <c r="A2" s="105"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="108" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="108" t="s">
+        <v>146</v>
+      </c>
+      <c r="J2" s="109"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="108" t="s">
+        <v>111</v>
+      </c>
+      <c r="M2" s="113"/>
+      <c r="N2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="106" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="107"/>
+    </row>
+    <row r="3" spans="1:16" ht="20.25" customHeight="1">
+      <c r="A3" s="95" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="96"/>
+      <c r="C3" s="99" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="101"/>
+    </row>
+    <row r="4" spans="1:16" ht="34.5" customHeight="1">
+      <c r="A4" s="97"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="103"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="103"/>
+      <c r="M4" s="103"/>
+      <c r="N4" s="103"/>
+      <c r="O4" s="103"/>
+      <c r="P4" s="104"/>
+    </row>
+    <row r="5" spans="1:16" ht="20.25" customHeight="1">
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+    </row>
+    <row r="6" spans="1:16" ht="31.5" customHeight="1" thickBot="1">
+      <c r="A6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6" s="61"/>
+      <c r="N6" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="P6" s="18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="26" customFormat="1" ht="37.5" customHeight="1" thickTop="1">
+      <c r="A7" s="19">
+        <v>1</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="L7" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="63"/>
+      <c r="N7" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="O7" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="P7" s="25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="26" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A8" s="27">
+        <v>2</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="23">
+        <v>255</v>
+      </c>
+      <c r="F8" s="24">
+        <v>0</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="L8" s="91" t="s">
+        <v>157</v>
+      </c>
+      <c r="M8" s="92"/>
+      <c r="N8" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="O8" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="P8" s="25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="26" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A9" s="28">
+        <v>3</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="23">
+        <v>255</v>
+      </c>
+      <c r="F9" s="24">
+        <v>0</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" s="91" t="s">
+        <v>158</v>
+      </c>
+      <c r="M9" s="92"/>
+      <c r="N9" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="O9" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9" s="25" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="26" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A10" s="28">
+        <v>4</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="23">
+        <v>255</v>
+      </c>
+      <c r="F10" s="24">
+        <v>0</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10" s="91" t="s">
+        <v>159</v>
+      </c>
+      <c r="M10" s="92"/>
+      <c r="N10" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="O10" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" s="25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="26" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A11" s="68">
+        <v>5</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="L11" s="91" t="s">
+        <v>160</v>
+      </c>
+      <c r="M11" s="92"/>
+      <c r="N11" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="O11" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="P11" s="25" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="26" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A12" s="68">
+        <v>6</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="23">
+        <v>50</v>
+      </c>
+      <c r="F12" s="24">
+        <v>0</v>
+      </c>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="L12" s="91" t="s">
+        <v>161</v>
+      </c>
+      <c r="M12" s="92"/>
+      <c r="N12" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="O12" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="P12" s="25" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" s="26" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A13" s="28">
+        <v>7</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="L13" s="91" t="s">
+        <v>128</v>
+      </c>
+      <c r="M13" s="92"/>
+      <c r="N13" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="O13" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="P13" s="67" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="26" customFormat="1" ht="63" customHeight="1">
+      <c r="A14" s="27">
+        <v>8</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="L14" s="91" t="s">
+        <v>129</v>
+      </c>
+      <c r="M14" s="92"/>
+      <c r="N14" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="O14" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="P14" s="67" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="26" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+    </row>
+    <row r="16" spans="1:16" s="26" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+    </row>
+    <row r="17" spans="1:16" s="26" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+    </row>
+    <row r="18" spans="1:16" s="26" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+    </row>
+    <row r="19" spans="1:16" ht="60" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:P4"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L13:M13"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="I1:K1"/>
